--- a/biology/Médecine/Serge_Stoléru/Serge_Stoléru.xlsx
+++ b/biology/Médecine/Serge_Stoléru/Serge_Stoléru.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Serge_Stol%C3%A9ru</t>
+          <t>Serge_Stoléru</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Serge Stoléru, né le 2 juin 1952 à Lyon et mort le 10 janvier 2020 à Paris[1] est un médecin, psychiatre et chercheur à l'INSERM. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Serge Stoléru, né le 2 juin 1952 à Lyon et mort le 10 janvier 2020 à Paris est un médecin, psychiatre et chercheur à l'INSERM. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Serge_Stol%C3%A9ru</t>
+          <t>Serge_Stoléru</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le père de Serge Stoléru, Jean,  quitte la Roumanie  en, 1926 pour Lyon où il termine ses études de médecine[2]. Serge est élève au lycée du Parc. Il est lauréat du concours général de philosophie en 1969. Serge Stoléru a une sœur, Josiane Stoléru, actrice et il est le cousin germain de Lionel Stoléru.
-Serge Stoléru fait des études de médecine à Lyon. Il est interne de 1975 à 1980 et docteur en médecine en 1980. De 1982 à 1985 il est chef de clinique à Paris. En 1984 il obtient, à Lyon,  le certificat d'études spéciales de psychiatrie, option psychiatrie de l'enfant[3]. À partir de 1986 il est chargé de recherche à l'INSERM. Il soutient, en 1986, une thèse de doctorat en psychologie à l'université Paris-Descartes Psychotherapies mère-nourrisson dans les familles à problèmes multiples sous la direction de Serge Lebovici[4] . Serge Stoléru dirige un groupe de recherche au sein du Centre de recherche en épidémiologie et santé des populations (Cesp) de Villejuif.
-Il étudie l'interface entre les phénomènes mentaux et leurs soubassements cérébraux. Il développe un format d'entretien clinique qu'il appelle l'entretien semi-structuré mulitregistres[5]. Il utilise  une technique de neuro-imagerie fonctionnelle pour comprendre les bases du désir sexuel[6]. Il publie en 2016 Un cerveau nommé désir. Il explique, dans un entretien à l'Express[7] ses conclusions Ma vision des pulsions sexuelles, sur la base de mes travaux par IRM et TEP, peut être schématisée par une balance avec deux plateaux: l'un active le désir sexuel et l'autre le contrôle, au sens où il inhibe. Je qualifie ce modèle de « neurophénoménologique », expression qui signifie simplement ce que l'individu ressent et vit. Mes recherches essaient de comprendre le lien entre cette phénoménologie et ce qui se produit dans le cerveau. Autrement dit, de répondre à la question : pourquoi l'individu passe à l'acte sexuel quand il ressent un désir ?".
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le père de Serge Stoléru, Jean,  quitte la Roumanie  en, 1926 pour Lyon où il termine ses études de médecine. Serge est élève au lycée du Parc. Il est lauréat du concours général de philosophie en 1969. Serge Stoléru a une sœur, Josiane Stoléru, actrice et il est le cousin germain de Lionel Stoléru.
+Serge Stoléru fait des études de médecine à Lyon. Il est interne de 1975 à 1980 et docteur en médecine en 1980. De 1982 à 1985 il est chef de clinique à Paris. En 1984 il obtient, à Lyon,  le certificat d'études spéciales de psychiatrie, option psychiatrie de l'enfant. À partir de 1986 il est chargé de recherche à l'INSERM. Il soutient, en 1986, une thèse de doctorat en psychologie à l'université Paris-Descartes Psychotherapies mère-nourrisson dans les familles à problèmes multiples sous la direction de Serge Lebovici . Serge Stoléru dirige un groupe de recherche au sein du Centre de recherche en épidémiologie et santé des populations (Cesp) de Villejuif.
+Il étudie l'interface entre les phénomènes mentaux et leurs soubassements cérébraux. Il développe un format d'entretien clinique qu'il appelle l'entretien semi-structuré mulitregistres. Il utilise  une technique de neuro-imagerie fonctionnelle pour comprendre les bases du désir sexuel. Il publie en 2016 Un cerveau nommé désir. Il explique, dans un entretien à l'Express ses conclusions Ma vision des pulsions sexuelles, sur la base de mes travaux par IRM et TEP, peut être schématisée par une balance avec deux plateaux: l'un active le désir sexuel et l'autre le contrôle, au sens où il inhibe. Je qualifie ce modèle de « neurophénoménologique », expression qui signifie simplement ce que l'individu ressent et vit. Mes recherches essaient de comprendre le lien entre cette phénoménologie et ce qui se produit dans le cerveau. Autrement dit, de répondre à la question : pourquoi l'individu passe à l'acte sexuel quand il ressent un désir ?".
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Serge_Stol%C3%A9ru</t>
+          <t>Serge_Stoléru</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Un Cerveau nommé désir : Sexe,amour et neurosciences, Paris, 2016, Odile Jacob, 346
-Le Nourrisson, la Mère et le Psychanalyste,, 5e éd. Paris, 1999, Fayard, 377 p. (co-auteur Serge Lebovici)
+Le Nourrisson, la Mère et le Psychanalyste 5e éd. Paris, 1999, Fayard, 377 p. (co-auteur Serge Lebovici)
 Psychothérapies mère-nourrisson dans les familles à problèmes multiples, 1989, P.U.F., coll. Le fil rouge, 285 p. (co-auteur Martine Moralès-Huet)lire en ligne sur Gallica
 Psychopathologie du nourrisson et du jeune enfant,   Paris, 1988, Masson, 1988, 278 p. (co-auteur Philippe Mazet)</t>
         </is>
